--- a/biology/Botanique/Cinnamosma_fragrans/Cinnamosma_fragrans.xlsx
+++ b/biology/Botanique/Cinnamosma_fragrans/Cinnamosma_fragrans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cinnamosma fragrans est une espèce de plantes aromatiques de la famille des Canellaceae et endémique de Madagascar [2],[3]. Elle est appelée communément Mandravasarotra et porte la dénomination commerciale de 'Saro'.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cinnamosma fragrans est une espèce de plantes aromatiques de la famille des Canellaceae et endémique de Madagascar ,. Elle est appelée communément Mandravasarotra et porte la dénomination commerciale de 'Saro'.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cinnamosma fragrans a été décrite en 1867 par le botaniste français Henri Ernest Baillon (1827-1895)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cinnamosma fragrans a été décrite en 1867 par le botaniste français Henri Ernest Baillon (1827-1895).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (21 août 2022)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (21 août 2022) :
 variété Cinnamosma fragrans var. perrieri Courchet</t>
         </is>
       </c>
